--- a/demo_project/main/static/data.xlsx
+++ b/demo_project/main/static/data.xlsx
@@ -14,54 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
-  <si>
-    <t>id_2</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>id_3</t>
-  </si>
-  <si>
-    <t>id_4</t>
-  </si>
-  <si>
-    <t>id_6</t>
   </si>
   <si>
     <t>tiger</t>
   </si>
   <si>
-    <t>id_7</t>
-  </si>
-  <si>
-    <t>id_8</t>
-  </si>
-  <si>
-    <t>id_9</t>
-  </si>
-  <si>
-    <t>elephant</t>
-  </si>
-  <si>
-    <t>id_10</t>
-  </si>
-  <si>
-    <t>id_11</t>
-  </si>
-  <si>
-    <t>macaque</t>
-  </si>
-  <si>
-    <t>id_12</t>
+    <t>id_2</t>
   </si>
   <si>
     <t>id_1</t>
-  </si>
-  <si>
-    <t>id_5</t>
   </si>
 </sst>
 </file>
@@ -393,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,10 +371,10 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>19.6</v>
+        <v>75</v>
       </c>
       <c r="D1">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -421,10 +385,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>19.7</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>72.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -435,200 +399,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>19.8</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>72.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>20.6</v>
-      </c>
-      <c r="D4">
-        <v>73.59999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>20.7</v>
-      </c>
-      <c r="D5">
-        <v>73.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>20.8</v>
-      </c>
-      <c r="D6">
-        <v>73.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>24.1</v>
-      </c>
-      <c r="D8">
-        <v>74.09999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>22.2</v>
-      </c>
-      <c r="D10">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>19.5</v>
-      </c>
-      <c r="D11">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15">
-        <v>23</v>
-      </c>
-      <c r="D15">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>20.5</v>
-      </c>
-      <c r="D16">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18">
-        <v>22</v>
-      </c>
-      <c r="D18">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19">
-        <v>23</v>
-      </c>
-      <c r="D19">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20">
-        <v>24</v>
-      </c>
-      <c r="D20">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
